--- a/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:59:29+00:00</t>
+    <t>2025-09-22T09:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:16:12+00:00</t>
+    <t>2025-09-22T09:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:19:42+00:00</t>
+    <t>2025-09-22T10:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T10:03:14+00:00</t>
+    <t>2025-10-15T12:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>123</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>213</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>219</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>241</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>255</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>277</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>286</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>297</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>315</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>347</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>355</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>366</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>394</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>442</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>448</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>457</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>483</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>491</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>500</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>507</v>
       </c>
@@ -9885,12 +9885,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ64">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/29-préparation-release-101/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:35:06+00:00</t>
+    <t>2025-10-17T07:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
